--- a/Engagment_matrix.xlsx
+++ b/Engagment_matrix.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohamed\Downloads\Documents\Sprints\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohamed\Downloads\Documents\Sprints\PM_Task\PM_Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CE2786-8485-4CC2-B059-E81567083B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5165AD0C-C97F-4952-B59D-1E3608C244E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F5DA66CC-40C9-4919-91C2-F80BCA8E4605}"/>
   </bookViews>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
   <si>
     <t>Customer ( Company - foundation - person - ectra…)</t>
   </si>
@@ -154,6 +145,42 @@
   </si>
   <si>
     <t>sponsor</t>
+  </si>
+  <si>
+    <t>Stakeholder</t>
+  </si>
+  <si>
+    <t>Communication path</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>Depending on the flexibility of the customer's schedule, I will organize a weekly or biweekly meeting. Keep him informed of any project updates.</t>
+  </si>
+  <si>
+    <t>Sponsor</t>
+  </si>
+  <si>
+    <t>Improve your clarity within the parameters of our project. Assure him of his crucial position within the project. Always keep him informed of any modifications as the project progresses.</t>
+  </si>
+  <si>
+    <t>Software team</t>
+  </si>
+  <si>
+    <t>Set up a weekly gathering. Always stay in touch, whether through meetings or other communication channels.</t>
+  </si>
+  <si>
+    <t>Encourage them and emphasize their accomplishments.</t>
+  </si>
+  <si>
+    <t>I'll make an effort to persuade them to hire a particular applicant to complete our project's construction. putting together a data sheet or a proposal that details the financial gain for our organization from taking on the job.</t>
+  </si>
+  <si>
+    <t>Store owners</t>
+  </si>
+  <si>
+    <t>I'll go to their stores and schedule meetings with each of the store managers. giving them the application idea after describing our business and what we do. Moreover, demonstrate to them the value of such an app for them.</t>
   </si>
 </sst>
 </file>
@@ -225,15 +252,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -252,6 +279,67 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -267,6 +355,34 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -278,7 +394,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
-        <color rgb="FFFF0000"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -328,62 +443,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -399,52 +458,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -474,15 +501,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{55D99889-E4BE-414A-9B2B-D987FBEA5716}" name="Table1" displayName="Table1" ref="A2:F10" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{55D99889-E4BE-414A-9B2B-D987FBEA5716}" name="Table1" displayName="Table1" ref="A2:F10" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A2:F10" xr:uid="{55D99889-E4BE-414A-9B2B-D987FBEA5716}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{850BEF36-03BF-4067-8173-43D4C6C22EEC}" name="Stakeholders" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{38A68896-BB3C-4C36-BC5F-A808D71BDB10}" name="Unware" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{4E32BB06-9594-4D0E-9B92-AAC74118D6C4}" name="Resistant" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{388B1033-3047-4D3A-8459-FCA5407DBE31}" name="Neutral" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{78729D12-FB78-4A6D-A828-768C43BE768F}" name="Supportive" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{07D698FC-9578-4671-BDCE-7020289614ED}" name="Leading" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{850BEF36-03BF-4067-8173-43D4C6C22EEC}" name="Stakeholders" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{38A68896-BB3C-4C36-BC5F-A808D71BDB10}" name="Unware" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{4E32BB06-9594-4D0E-9B92-AAC74118D6C4}" name="Resistant" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{388B1033-3047-4D3A-8459-FCA5407DBE31}" name="Neutral" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{78729D12-FB78-4A6D-A828-768C43BE768F}" name="Supportive" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{07D698FC-9578-4671-BDCE-7020289614ED}" name="Leading" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -492,13 +519,24 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{421C8F9E-C618-4794-A6B6-42302D9722A9}" name="Table13" displayName="Table13" ref="A13:E19" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A13:E19" xr:uid="{421C8F9E-C618-4794-A6B6-42302D9722A9}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B982FB0E-5B3E-4DDF-9477-44514B4004D9}" name="Message / Purpose" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{4198ED65-EE9C-4CC6-8EAE-F9A8963C0933}" name="Responsibility" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{B982FB0E-5B3E-4DDF-9477-44514B4004D9}" name="Message / Purpose" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{4198ED65-EE9C-4CC6-8EAE-F9A8963C0933}" name="Responsibility" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{21AAAD3E-A34C-4FBF-B45B-77427BAF87F9}" name="Audience" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{C34CA4F6-C66E-4747-99C3-AD3D9EFEBAA7}" name="Medium" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{1A77B561-2496-4346-9045-834623EE66A2}" name="Frequancy / Timing" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{C34CA4F6-C66E-4747-99C3-AD3D9EFEBAA7}" name="Medium" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{1A77B561-2496-4346-9045-834623EE66A2}" name="Frequancy / Timing" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{63CA293C-B10F-4D1B-9B24-1E9DB7656FCF}" name="Table3" displayName="Table3" ref="I2:J8" totalsRowShown="0">
+  <autoFilter ref="I2:J8" xr:uid="{63CA293C-B10F-4D1B-9B24-1E9DB7656FCF}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{2EB10D4B-11C3-47E1-A290-9F3B5CD0B90B}" name="Stakeholder"/>
+    <tableColumn id="2" xr3:uid="{FE0B79DE-92D7-4AAD-83BD-3321B76E4EF5}" name="Communication path"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -799,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89ED9012-D2C2-4644-9516-6F1AB6C8B171}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I1048576"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,19 +851,21 @@
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="204.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -844,8 +884,14 @@
       <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -856,8 +902,14 @@
         <v>12</v>
       </c>
       <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>39</v>
       </c>
@@ -870,8 +922,14 @@
       <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -884,8 +942,14 @@
       <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -898,8 +962,11 @@
       <c r="F6" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -912,8 +979,14 @@
         <v>11</v>
       </c>
       <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -924,8 +997,14 @@
         <v>12</v>
       </c>
       <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -939,7 +1018,7 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -953,17 +1032,17 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -980,14 +1059,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -997,14 +1076,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -1014,14 +1093,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -1032,13 +1111,13 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -1049,13 +1128,13 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -1066,13 +1145,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -1089,9 +1168,11 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
-    <tablePart r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>